--- a/colors.xlsx
+++ b/colors.xlsx
@@ -891,7 +891,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
